--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuli\Documents\practice_git_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D68576-AE59-44EC-B81F-56579238FE1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C8DFB1-80E4-44A5-9FEE-1F58F6A2562E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{4E38FBD2-D178-4C87-804A-74798C06D694}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{4E38FBD2-D178-4C87-804A-74798C06D694}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">INTRO!$A$1:$D$22</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <t xml:space="preserve">My name is __________________. I am a representative of the Namibia Statistics Agency (NSA). The NSA is conducting the 2021 Namibia Population and Housing Census. All persons including the young, old and Persons with disabilities (including visitors) who spend the reference night (29 August 2021) in this Household must </t>
@@ -93,6 +94,9 @@
   </si>
   <si>
     <t>The Statistics Act (Act no. 9 of 2011) requires that all persons in Namibia participate in the census. Please be assured that all information to be collected will be kept confidential. Information will only be used for statistical purposes. People who misuse the data collected can be prosecuted.  I would now like to ask you a few questions, which I will record in this Tablet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we are about to be excited </t>
   </si>
 </sst>
 </file>
@@ -476,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878824E6-FAFB-458D-B6B7-08B47651C21D}">
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="90" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="90" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:D22"/>
     </sheetView>
   </sheetViews>
@@ -624,4 +628,22 @@
   <pageSetup paperSize="8" scale="125" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E0E712-F7A0-451A-8053-2A52DE5FBE3E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>